--- a/eclingo_reif_YBE_NO_Propagate_600s.xlsx
+++ b/eclingo_reif_YBE_NO_Propagate_600s.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutelillo/Desktop/solver_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067D00F-4BF8-EA48-9831-070C332215AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7932B141-9D76-8E46-827F-96C68D830E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="337">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1000,27 +1013,6 @@
     <t>eligible/eligible_eligible9968-1.lp</t>
   </si>
   <si>
-    <t>yale_shooting/yale-parameter_yale01.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale02.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale03.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale04.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale05.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale07.lp</t>
-  </si>
-  <si>
-    <t>yale_shooting/yale-parameter_yale08.lp</t>
-  </si>
-  <si>
     <t>yale_shooting/yale_yale01.lp</t>
   </si>
   <si>
@@ -1042,28 +1034,16 @@
     <t>yale_shooting/yale_yale08.lp</t>
   </si>
   <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>DEV</t>
-  </si>
-  <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t>BEST</t>
-  </si>
-  <si>
-    <t>BETTER</t>
-  </si>
-  <si>
-    <t>WORSE</t>
-  </si>
-  <si>
-    <t>WORST</t>
+    <t>Yale Problems - Average</t>
+  </si>
+  <si>
+    <t>Bomb Problems - Average</t>
+  </si>
+  <si>
+    <t>Eligible Problems - Average</t>
+  </si>
+  <si>
+    <t>Total Problems - Average</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="A336" sqref="A336:F353"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4860,19 +4840,19 @@
         <v>176</v>
       </c>
       <c r="B172">
-        <v>293.06599999999997</v>
+        <v>600</v>
       </c>
       <c r="C172">
-        <v>286.18799999999999</v>
+        <v>600</v>
       </c>
       <c r="D172">
-        <v>286.18799999999999</v>
+        <v>600</v>
       </c>
       <c r="E172">
-        <v>289.62700000000001</v>
+        <v>600</v>
       </c>
       <c r="F172">
-        <v>293.06599999999997</v>
+        <v>600</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -4940,19 +4920,19 @@
         <v>180</v>
       </c>
       <c r="B176">
-        <v>138.20099999999999</v>
+        <v>600</v>
       </c>
       <c r="C176">
-        <v>134.79599999999999</v>
+        <v>600</v>
       </c>
       <c r="D176">
-        <v>134.79599999999999</v>
+        <v>600</v>
       </c>
       <c r="E176">
-        <v>136.49850000000001</v>
+        <v>600</v>
       </c>
       <c r="F176">
-        <v>138.20099999999999</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -7860,19 +7840,19 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>0.199964</v>
+        <v>0.22271199999999999</v>
       </c>
       <c r="C322">
-        <v>0.214813</v>
+        <v>0.217996</v>
       </c>
       <c r="D322">
-        <v>0.199964</v>
+        <v>0.217996</v>
       </c>
       <c r="E322">
-        <v>0.2073885</v>
+        <v>0.22035399999999999</v>
       </c>
       <c r="F322">
-        <v>0.214813</v>
+        <v>0.22271199999999999</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -7880,19 +7860,19 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>0.20395199999999999</v>
+        <v>0.24610199999999999</v>
       </c>
       <c r="C323">
-        <v>0.186469</v>
+        <v>0.235484</v>
       </c>
       <c r="D323">
-        <v>0.186469</v>
+        <v>0.235484</v>
       </c>
       <c r="E323">
-        <v>0.19521050000000001</v>
+        <v>0.24079300000000001</v>
       </c>
       <c r="F323">
-        <v>0.20395199999999999</v>
+        <v>0.24610199999999999</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -7900,19 +7880,19 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>0.19134300000000001</v>
+        <v>0.26550200000000002</v>
       </c>
       <c r="C324">
-        <v>0.192163</v>
+        <v>0.26749699999999998</v>
       </c>
       <c r="D324">
-        <v>0.19134300000000001</v>
+        <v>0.26550200000000002</v>
       </c>
       <c r="E324">
-        <v>0.19175300000000001</v>
+        <v>0.2664995</v>
       </c>
       <c r="F324">
-        <v>0.192163</v>
+        <v>0.26749699999999998</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -7920,19 +7900,19 @@
         <v>329</v>
       </c>
       <c r="B325">
-        <v>0.19436500000000001</v>
+        <v>0.29443200000000003</v>
       </c>
       <c r="C325">
-        <v>0.19522300000000001</v>
+        <v>0.29003000000000001</v>
       </c>
       <c r="D325">
-        <v>0.19436500000000001</v>
+        <v>0.29003000000000001</v>
       </c>
       <c r="E325">
-        <v>0.19479399999999999</v>
+        <v>0.29223100000000002</v>
       </c>
       <c r="F325">
-        <v>0.19522300000000001</v>
+        <v>0.29443200000000003</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -7940,19 +7920,19 @@
         <v>330</v>
       </c>
       <c r="B326">
-        <v>0.20879700000000001</v>
+        <v>0.42617899999999997</v>
       </c>
       <c r="C326">
-        <v>0.218364</v>
+        <v>0.40134599999999998</v>
       </c>
       <c r="D326">
-        <v>0.20879700000000001</v>
+        <v>0.40134599999999998</v>
       </c>
       <c r="E326">
-        <v>0.21358050000000001</v>
+        <v>0.41376249999999998</v>
       </c>
       <c r="F326">
-        <v>0.218364</v>
+        <v>0.42617899999999997</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -7960,19 +7940,19 @@
         <v>331</v>
       </c>
       <c r="B327">
-        <v>0.20810600000000001</v>
+        <v>1.12564</v>
       </c>
       <c r="C327">
-        <v>0.215007</v>
+        <v>1.1162300000000001</v>
       </c>
       <c r="D327">
-        <v>0.20810600000000001</v>
+        <v>1.1162300000000001</v>
       </c>
       <c r="E327">
-        <v>0.21155650000000001</v>
+        <v>1.120935</v>
       </c>
       <c r="F327">
-        <v>0.215007</v>
+        <v>1.12564</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -7980,274 +7960,55 @@
         <v>332</v>
       </c>
       <c r="B328">
-        <v>0.22312799999999999</v>
+        <v>0.71330700000000002</v>
       </c>
       <c r="C328">
-        <v>0.23169300000000001</v>
+        <v>0.74763000000000002</v>
       </c>
       <c r="D328">
-        <v>0.22312799999999999</v>
+        <v>0.71330700000000002</v>
       </c>
       <c r="E328">
-        <v>0.22741049999999999</v>
+        <v>0.73046849999999997</v>
       </c>
       <c r="F328">
-        <v>0.23169300000000001</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+        <v>0.74763000000000002</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
         <v>333</v>
       </c>
-      <c r="B329">
-        <v>0.22271199999999999</v>
-      </c>
-      <c r="C329">
-        <v>0.217996</v>
-      </c>
-      <c r="D329">
-        <v>0.217996</v>
-      </c>
-      <c r="E329">
-        <v>0.22035399999999999</v>
-      </c>
-      <c r="F329">
-        <v>0.22271199999999999</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+      <c r="B339">
+        <f>AVERAGE(E322:E328)</f>
+        <v>0.46929192857142848</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
         <v>334</v>
       </c>
-      <c r="B330">
-        <v>0.24610199999999999</v>
-      </c>
-      <c r="C330">
-        <v>0.235484</v>
-      </c>
-      <c r="D330">
-        <v>0.235484</v>
-      </c>
-      <c r="E330">
-        <v>0.24079300000000001</v>
-      </c>
-      <c r="F330">
-        <v>0.24610199999999999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+      <c r="B340">
+        <f>AVERAGE(E3:E176)</f>
+        <v>558.43040070402299</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
         <v>335</v>
       </c>
-      <c r="B331">
-        <v>0.26550200000000002</v>
-      </c>
-      <c r="C331">
-        <v>0.26749699999999998</v>
-      </c>
-      <c r="D331">
-        <v>0.26550200000000002</v>
-      </c>
-      <c r="E331">
-        <v>0.2664995</v>
-      </c>
-      <c r="F331">
-        <v>0.26749699999999998</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+      <c r="B341">
+        <f>AVERAGE(E177:E321)</f>
+        <v>18.620713548275869</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
         <v>336</v>
       </c>
-      <c r="B332">
-        <v>0.29443200000000003</v>
-      </c>
-      <c r="C332">
-        <v>0.29003000000000001</v>
-      </c>
-      <c r="D332">
-        <v>0.29003000000000001</v>
-      </c>
-      <c r="E332">
-        <v>0.29223100000000002</v>
-      </c>
-      <c r="F332">
-        <v>0.29443200000000003</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>337</v>
-      </c>
-      <c r="B333">
-        <v>0.42617899999999997</v>
-      </c>
-      <c r="C333">
-        <v>0.40134599999999998</v>
-      </c>
-      <c r="D333">
-        <v>0.40134599999999998</v>
-      </c>
-      <c r="E333">
-        <v>0.41376249999999998</v>
-      </c>
-      <c r="F333">
-        <v>0.42617899999999997</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>338</v>
-      </c>
-      <c r="B334">
-        <v>1.12564</v>
-      </c>
-      <c r="C334">
-        <v>1.1162300000000001</v>
-      </c>
-      <c r="D334">
-        <v>1.1162300000000001</v>
-      </c>
-      <c r="E334">
-        <v>1.120935</v>
-      </c>
-      <c r="F334">
-        <v>1.12564</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>339</v>
-      </c>
-      <c r="B335">
-        <v>0.71330700000000002</v>
-      </c>
-      <c r="C335">
-        <v>0.74763000000000002</v>
-      </c>
-      <c r="D335">
-        <v>0.71330700000000002</v>
-      </c>
-      <c r="E335">
-        <v>0.73046849999999997</v>
-      </c>
-      <c r="F335">
-        <v>0.74763000000000002</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>340</v>
-      </c>
-      <c r="B355">
-        <v>600</v>
-      </c>
-      <c r="C355">
-        <v>600</v>
-      </c>
-      <c r="D355">
-        <v>600</v>
-      </c>
-      <c r="E355">
-        <v>600</v>
-      </c>
-      <c r="F355">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>341</v>
-      </c>
-      <c r="B356">
-        <v>581.46246968091202</v>
-      </c>
-      <c r="C356">
-        <v>584.58068056980096</v>
-      </c>
-      <c r="D356">
-        <v>580.26327748433096</v>
-      </c>
-      <c r="E356">
-        <v>583.02157512535598</v>
-      </c>
-      <c r="F356">
-        <v>585.77987276638203</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>342</v>
-      </c>
-      <c r="B357">
-        <v>582.84769653800504</v>
-      </c>
-      <c r="C357">
-        <v>585.84760016077496</v>
-      </c>
-      <c r="D357">
-        <v>581.69876249696097</v>
-      </c>
-      <c r="E357">
-        <v>584.321231939369</v>
-      </c>
-      <c r="F357">
-        <v>586.97956804815703</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>343</v>
-      </c>
-      <c r="B358">
-        <v>64.616844500105699</v>
-      </c>
-      <c r="C358">
-        <v>213.56069115618399</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>344</v>
-      </c>
-      <c r="B359">
-        <v>233</v>
-      </c>
-      <c r="C359">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>345</v>
-      </c>
-      <c r="B360">
-        <v>233</v>
-      </c>
-      <c r="C360">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>346</v>
-      </c>
-      <c r="B361">
-        <v>118</v>
-      </c>
-      <c r="C361">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
-        <v>347</v>
-      </c>
-      <c r="B362">
-        <v>118</v>
-      </c>
-      <c r="C362">
-        <v>233</v>
+      <c r="B342">
+        <f>AVERAGE(E3:E328)</f>
+        <v>306.35023997085909</v>
       </c>
     </row>
   </sheetData>
